--- a/INTLINE/data/566/PHSA/MISSI/old/Value of Production Index_historical.xlsx
+++ b/INTLINE/data/566/PHSA/MISSI/old/Value of Production Index_historical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\PHSA\MISSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\PHSA\MISSI\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89347800-0418-49E9-B093-8A15C76F9A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3026D-D94B-407F-9F7A-6CF36A23019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Manufacture of textiles</t>
-  </si>
-  <si>
-    <t>Manufacture of wood, bamboo, cane, rattan articles and related products</t>
   </si>
   <si>
     <t>Manufacture of paper and paper products</t>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Manufacture of furniture</t>
+  </si>
+  <si>
+    <t>Manufacture of wood, bamboo, cane, rattan articles, and related products</t>
   </si>
 </sst>
 </file>
@@ -445,10 +445,13 @@
   <dimension ref="A1:KG19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5728,7 +5731,7 @@
     </row>
     <row r="7" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>146.952709780036</v>
@@ -6607,7 +6610,7 @@
     </row>
     <row r="8" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>53.439062230649903</v>
@@ -7486,7 +7489,7 @@
     </row>
     <row r="9" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="10" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>35.558226596051</v>
@@ -9172,7 +9175,7 @@
     </row>
     <row r="11" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -9859,7 +9862,7 @@
     </row>
     <row r="12" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10570,7 +10573,7 @@
     </row>
     <row r="13" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>50.499493673547299</v>
@@ -11449,7 +11452,7 @@
     </row>
     <row r="14" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>35.753663319670402</v>
@@ -12328,7 +12331,7 @@
     </row>
     <row r="15" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -13135,7 +13138,7 @@
     </row>
     <row r="16" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -13942,7 +13945,7 @@
     </row>
     <row r="17" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>43.387678163960402</v>
@@ -14821,7 +14824,7 @@
     </row>
     <row r="18" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>34.309457374387001</v>
@@ -15700,7 +15703,7 @@
     </row>
     <row r="19" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>114.194968780453</v>
